--- a/medicine/Soins infirmiers et profession infirmière/Ordre_infirmier/Ordre_infirmier.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Ordre_infirmier/Ordre_infirmier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Ordre des infirmiers est un ordre professionnel . Sa définition précise et ses missions varient suivant chaque pays. Dans les principes fondateurs, l'Ordre infirmier représente l'ensemble de la profession, il est chargé de  maintenir l'éthique et la déontologie de la profession d'infirmier, l'Ordre s'assure de la compétence de ses membres.
 Il se charge également de représenter les professionnels sur le plan administratif et juridique.
@@ -513,7 +525,9 @@
           <t>Liste d'ordres infirmiers</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Conseil international des infirmières
 Fédération européenne des associations infirmières
